--- a/api/Download/taindex_template.xlsx
+++ b/api/Download/taindex_template.xlsx
@@ -130,97 +130,97 @@
     <t xml:space="preserve">company</t>
   </si>
   <si>
-    <t xml:space="preserve">02921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02922</t>
+    <t xml:space="preserve">f02921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02922</t>
   </si>
   <si>
     <t xml:space="preserve">AAA</t>
@@ -234,11 +234,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -269,12 +270,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -333,7 +328,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -350,23 +345,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -390,10 +381,10 @@
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.76"/>
   </cols>
@@ -506,10 +497,10 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -607,13 +598,13 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="6" t="n">
         <v>44188</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>67</v>
       </c>
     </row>

--- a/api/Download/taindex_template.xlsx
+++ b/api/Download/taindex_template.xlsx
@@ -13,22 +13,25 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
-  <si>
-    <t xml:space="preserve">stt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngày</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã CK</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t xml:space="preserve">Stt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA9</t>
   </si>
   <si>
     <t xml:space="preserve">EMA12</t>
@@ -124,10 +127,10 @@
     <t xml:space="preserve">SpanB</t>
   </si>
   <si>
-    <t xml:space="preserve">stock_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">company</t>
+    <t xml:space="preserve">AAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02932</t>
   </si>
   <si>
     <t xml:space="preserve">f02901</t>
@@ -221,26 +224,20 @@
   </si>
   <si>
     <t xml:space="preserve">f02931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -305,7 +302,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,131 +323,130 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.56"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="0" t="s">
         <v>35</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>44562</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>36</v>
@@ -545,28 +541,17 @@
       <c r="AH2" s="0" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>44562</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="AI2" s="0" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="AAA"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/api/Download/taindex_template.xlsx
+++ b/api/Download/taindex_template.xlsx
@@ -20,114 +20,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t xml:space="preserve">Stt</t>
   </si>
   <si>
+    <t xml:space="preserve">Mã CK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaikin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccDist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aroon Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aroon Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB Top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB Mid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB Bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kijun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinkou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpanA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpanB</t>
+  </si>
+  <si>
     <t xml:space="preserve">company</t>
   </si>
   <si>
     <t xml:space="preserve">stock_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMA9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMA12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMA26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Histogram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaikin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccDist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aroon Down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aroon Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB Top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB Mid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB Bot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kijun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenkan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinkou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpanA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpanB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAA</t>
   </si>
   <si>
     <t xml:space="preserve">f02932</t>
@@ -297,12 +300,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,223 +325,223 @@
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>44562</v>
+      <c r="C2" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U2" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V2" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W2" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AH2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/api/Download/taindex_template.xlsx
+++ b/api/Download/taindex_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
   <si>
     <t xml:space="preserve">Stt</t>
   </si>
@@ -127,6 +127,39 @@
     <t xml:space="preserve">SpanB</t>
   </si>
   <si>
+    <t xml:space="preserve">BolingerBand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Short Trend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mid Trend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long Trend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Retail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aroon</t>
+  </si>
+  <si>
     <t xml:space="preserve">company</t>
   </si>
   <si>
@@ -227,6 +260,63 @@
   </si>
   <si>
     <t xml:space="preserve">f02931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02934</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02935</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02945</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02952</t>
   </si>
 </sst>
 </file>
@@ -241,6 +331,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -300,8 +391,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -322,226 +417,340 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="0" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="0" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="0" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="0" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="0" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="0" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="0" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="0" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="0" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB1" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="M2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="N2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="O2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AA2" s="0" t="s">
+      <c r="P2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AB2" s="0" t="s">
+      <c r="Q2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AC2" s="0" t="s">
+      <c r="R2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AD2" s="0" t="s">
+      <c r="S2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AE2" s="0" t="s">
+      <c r="T2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" s="0" t="s">
+      <c r="U2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="0" t="s">
+      <c r="V2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="0" t="s">
+      <c r="W2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AI2" s="0" t="s">
+      <c r="X2" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM2" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP2" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ2" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR2" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="AS2" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="AV2" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="AW2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY2" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="AZ2" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="BA2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="BB2" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/api/Download/taindex_template.xlsx
+++ b/api/Download/taindex_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t xml:space="preserve">Stt</t>
   </si>
@@ -31,133 +31,151 @@
     <t xml:space="preserve">Ngày</t>
   </si>
   <si>
+    <t xml:space="preserve">EMA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MACD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">%K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaikin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AccDist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aroon Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aroon Up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB Top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB Mid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB Bot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kijun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenkan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chinkou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpanA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SpanB</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMA9</t>
   </si>
   <si>
-    <t xml:space="preserve">EMA12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMA26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MACD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Signal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Histogram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RSI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">%K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaikin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PVI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AccDist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aroon Down</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aroon Up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB Top</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB Mid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB Bot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kijun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tenkan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chinkou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpanA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SpanB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BolingerBand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short Trend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mid Trend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long Trend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Retail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aroon</t>
+    <t xml:space="preserve">S_Bband</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_TRIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_MACD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_RSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_Short</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_Mid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_Long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_BigBoys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_Sar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_MFI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_ADX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_CCI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_Stoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_NVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_PVI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_AccDist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_Aroon</t>
   </si>
   <si>
     <t xml:space="preserve">company</t>
@@ -166,102 +184,102 @@
     <t xml:space="preserve">stock_date</t>
   </si>
   <si>
+    <t xml:space="preserve">f02901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02903</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02910</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02920</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02923</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02926</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f02931</t>
+  </si>
+  <si>
     <t xml:space="preserve">f02932</t>
   </si>
   <si>
-    <t xml:space="preserve">f02901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02904</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02909</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02910</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02912</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02913</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02920</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02923</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02926</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02927</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02930</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02931</t>
-  </si>
-  <si>
     <t xml:space="preserve">f02934</t>
   </si>
   <si>
@@ -311,12 +329,6 @@
   </si>
   <si>
     <t xml:space="preserve">f02950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f02952</t>
   </si>
 </sst>
 </file>
@@ -417,13 +429,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -435,100 +447,100 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="0" t="s">
         <v>34</v>
       </c>
       <c r="AJ1" s="0" t="s">
@@ -538,55 +550,49 @@
         <v>36</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="BA1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="BB1" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -594,163 +600,157 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="E2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="F2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="G2" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="I2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="J2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="K2" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="L2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="M2" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="N2" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="O2" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="P2" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Q2" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="R2" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="S2" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="T2" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="U2" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="V2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="W2" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="X2" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="Y2" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="Z2" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AA2" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AB2" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AC2" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="AD2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF2" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG2" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH2" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" s="0" t="s">
+        <v>85</v>
+      </c>
       <c r="AJ2" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AK2" s="0" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AL2" s="0" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="AM2" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="AN2" s="0" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AO2" s="0" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AP2" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="AQ2" s="0" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="AR2" s="0" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AS2" s="0" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="AT2" s="0" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AU2" s="0" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="AV2" s="0" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="AW2" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="AX2" s="0" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="AY2" s="0" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="AZ2" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="BA2" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="BB2" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
